--- a/Status/EnemyGrowthStatus.xlsx
+++ b/Status/EnemyGrowthStatus.xlsx
@@ -444,7 +444,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H1" sqref="H1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Status/EnemyGrowthStatus.xlsx
+++ b/Status/EnemyGrowthStatus.xlsx
@@ -21,13 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>体力</t>
-    <rPh sb="0" eb="2">
-      <t>タイリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>力</t>
     <rPh sb="0" eb="1">
       <t>チカラ</t>
@@ -73,10 +66,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>hp</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>str</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -98,6 +87,17 @@
   </si>
   <si>
     <t>agi</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>//体力</t>
+    <rPh sb="2" eb="4">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>//hp</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -444,56 +444,56 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="J2" s="5"/>
     </row>
@@ -682,5 +682,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>